--- a/v0.7/StructureDefinition-PaymentNotice.xlsx
+++ b/v0.7/StructureDefinition-PaymentNotice.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcx-project.github.io/hcx-specs/v0.7/StructureDefinition-PaymentNotice.html</t>
+    <t>https://ig.hcxprotocol.io/v0.7/StructureDefinition-PaymentNotice.html</t>
   </si>
   <si>
     <t>Version</t>
@@ -570,7 +570,7 @@
     <t>PaymentNotice.payment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hcx-project.github.io/hcx-specs/v0.7/StructureDefinition-PaymentReconciliation.html)
+    <t xml:space="preserve">Reference(https://ig.hcxprotocol.io/v0.7/StructureDefinition-PaymentReconciliation.html)
 </t>
   </si>
   <si>

--- a/v0.7/StructureDefinition-PaymentNotice.xlsx
+++ b/v0.7/StructureDefinition-PaymentNotice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -111,7 +111,7 @@
     <t>Derivation</t>
   </si>
   <si>
-    <t>specialization</t>
+    <t>constraint</t>
   </si>
   <si>
     <t>Path</t>
@@ -246,10 +246,6 @@
     <t>PaymentNotice request</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -265,7 +261,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -970,14 +966,14 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="31.0078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -988,27 +984,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="47.69921875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="41.3671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.75" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1227,13 +1223,13 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>73</v>
@@ -1247,7 +1243,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1258,28 +1254,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1329,13 +1325,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1361,7 +1357,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1372,25 +1368,25 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1441,19 +1437,19 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1473,7 +1469,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1484,28 +1480,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1555,19 +1551,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -1587,7 +1583,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1598,7 +1594,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1610,16 +1606,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1645,43 +1641,43 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -1701,18 +1697,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -1724,16 +1720,16 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1783,25 +1779,25 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>73</v>
@@ -1815,11 +1811,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1838,16 +1834,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1897,7 +1893,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -1915,7 +1911,7 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>73</v>
@@ -1929,11 +1925,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1952,16 +1948,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2011,7 +2007,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2023,13 +2019,13 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>73</v>
@@ -2043,11 +2039,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2060,25 +2056,25 @@
         <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2127,7 +2123,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2139,13 +2135,13 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>73</v>
@@ -2159,7 +2155,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2167,10 +2163,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2182,17 +2178,17 @@
         <v>73</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>73</v>
@@ -2241,7 +2237,7 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>74</v>
@@ -2253,16 +2249,16 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>73</v>
@@ -2273,7 +2269,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2281,34 +2277,34 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>73</v>
@@ -2333,52 +2329,52 @@
         <v>73</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>73</v>
@@ -2389,7 +2385,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2397,10 +2393,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2412,13 +2408,13 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2469,28 +2465,28 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>73</v>
@@ -2501,7 +2497,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2509,10 +2505,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>73</v>
@@ -2524,13 +2520,13 @@
         <v>73</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2581,28 +2577,28 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>73</v>
@@ -2613,7 +2609,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2621,32 +2617,32 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2695,28 +2691,28 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>73</v>
@@ -2727,7 +2723,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2735,10 +2731,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>73</v>
@@ -2750,13 +2746,13 @@
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2807,39 +2803,39 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM16" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AN16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2847,32 +2843,32 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>73</v>
@@ -2921,19 +2917,19 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>73</v>
@@ -2953,7 +2949,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2964,7 +2960,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -2976,17 +2972,17 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>73</v>
@@ -3035,19 +3031,19 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>73</v>
@@ -3067,7 +3063,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3078,7 +3074,7 @@
         <v>74</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>73</v>
@@ -3090,13 +3086,13 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3147,19 +3143,19 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>73</v>
@@ -3179,7 +3175,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3187,32 +3183,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3261,25 +3257,25 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>73</v>
@@ -3293,7 +3289,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3301,32 +3297,32 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>73</v>
@@ -3375,19 +3371,19 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>73</v>
@@ -3407,7 +3403,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3418,7 +3414,7 @@
         <v>74</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>73</v>
@@ -3430,19 +3426,19 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>73</v>
@@ -3467,14 +3463,14 @@
         <v>73</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>73</v>
       </c>
@@ -3491,25 +3487,25 @@
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>73</v>
